--- a/branches/vl-suppression_fig-13_fig-24_fig-33/ValueSet-vs-hiv-death.xlsx
+++ b/branches/vl-suppression_fig-13_fig-24_fig-33/ValueSet-vs-hiv-death.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-08T14:59:12+00:00</t>
+    <t>2023-02-08T15:01:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/vl-suppression_fig-13_fig-24_fig-33/ValueSet-vs-hiv-death.xlsx
+++ b/branches/vl-suppression_fig-13_fig-24_fig-33/ValueSet-vs-hiv-death.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-08T15:01:20+00:00</t>
+    <t>2023-02-09T09:47:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/vl-suppression_fig-13_fig-24_fig-33/ValueSet-vs-hiv-death.xlsx
+++ b/branches/vl-suppression_fig-13_fig-24_fig-33/ValueSet-vs-hiv-death.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-09T09:47:00+00:00</t>
+    <t>2023-02-09T09:48:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/vl-suppression_fig-13_fig-24_fig-33/ValueSet-vs-hiv-death.xlsx
+++ b/branches/vl-suppression_fig-13_fig-24_fig-33/ValueSet-vs-hiv-death.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-09T09:48:14+00:00</t>
+    <t>2023-02-09T12:01:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/vl-suppression_fig-13_fig-24_fig-33/ValueSet-vs-hiv-death.xlsx
+++ b/branches/vl-suppression_fig-13_fig-24_fig-33/ValueSet-vs-hiv-death.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-09T12:01:57+00:00</t>
+    <t>2023-02-09T12:02:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/vl-suppression_fig-13_fig-24_fig-33/ValueSet-vs-hiv-death.xlsx
+++ b/branches/vl-suppression_fig-13_fig-24_fig-33/ValueSet-vs-hiv-death.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-09T12:02:42+00:00</t>
+    <t>2023-02-13T07:29:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/vl-suppression_fig-13_fig-24_fig-33/ValueSet-vs-hiv-death.xlsx
+++ b/branches/vl-suppression_fig-13_fig-24_fig-33/ValueSet-vs-hiv-death.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T07:29:47+00:00</t>
+    <t>2023-02-13T07:44:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/vl-suppression_fig-13_fig-24_fig-33/ValueSet-vs-hiv-death.xlsx
+++ b/branches/vl-suppression_fig-13_fig-24_fig-33/ValueSet-vs-hiv-death.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T07:44:02+00:00</t>
+    <t>2023-02-13T07:45:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
